--- a/analysis/post_gemini_data/Participant130/task_easy.xlsx
+++ b/analysis/post_gemini_data/Participant130/task_easy.xlsx
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q9"/>
+  <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,192 +422,138 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 0</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr"/>
+      <c r="B1" t="inlineStr">
         <is>
           <t>arg</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>code</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>conditionstate1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>exceptionhand1</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>external</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>gemini</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>literal</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>methoddec</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>param1</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>param2</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>summary</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>var</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>var2</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>var3</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>var4</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>var5</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>arg</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>code</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>conditionstate1</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>exceptionhand1</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>external</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>gemini</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>literal</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>methoddec</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>param1</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>param2</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>summary</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>var</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>var2</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>var3</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>var4</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>var5</t>
-        </is>
-      </c>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Fixation based metrics</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Fixation based metrics</t>
+          <t>Revisit count</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
+      <c r="G3" t="n">
+        <v>6</v>
+      </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>7</v>
+      </c>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
@@ -629,296 +563,167 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Revisit count</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
+          <t>Fixation count</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>12</v>
-      </c>
-      <c r="E4" t="n">
-        <v>4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="n">
-        <v>6</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>16</v>
-      </c>
-      <c r="J4" t="n">
-        <v>10</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="L4" t="n">
-        <v>28</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>2</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Fixation count</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>2</v>
-      </c>
+          <t>Dwell time (ms)</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>89</v>
+        <v>233.65</v>
       </c>
       <c r="D5" t="n">
-        <v>20</v>
-      </c>
-      <c r="E5" t="n">
-        <v>6</v>
-      </c>
+        <v>133.49</v>
+      </c>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="n">
-        <v>120</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="n">
-        <v>18</v>
-      </c>
-      <c r="J5" t="n">
-        <v>11</v>
-      </c>
+        <v>29087.67</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="n">
-        <v>10</v>
+        <v>133.49</v>
       </c>
       <c r="L5" t="n">
-        <v>109</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="n">
-        <v>3</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1</v>
-      </c>
+        <v>23690.73</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Dwell time (ms)</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>834.17</v>
-      </c>
+          <t>Dwell time (%)</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>34794.3</v>
+        <v>0.27</v>
       </c>
       <c r="D6" t="n">
-        <v>9309.559999999999</v>
-      </c>
-      <c r="E6" t="n">
-        <v>3220.8</v>
-      </c>
+        <v>0.15</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="n">
-        <v>29087.67</v>
-      </c>
-      <c r="H6" t="n">
-        <v>834.17</v>
-      </c>
-      <c r="I6" t="n">
-        <v>10360.74</v>
-      </c>
-      <c r="J6" t="n">
-        <v>5797.67</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="n">
-        <v>2928.19</v>
+        <v>0.15</v>
       </c>
       <c r="L6" t="n">
-        <v>39032.3</v>
-      </c>
-      <c r="M6" t="n">
-        <v>667.35</v>
-      </c>
-      <c r="N6" t="n">
-        <v>950.95</v>
-      </c>
-      <c r="O6" t="n">
-        <v>216.87</v>
-      </c>
+        <v>26.87</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Dwell time (%)</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0.49</v>
-      </c>
+          <t>Fixation duration (ms)</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
-        <v>20.27</v>
+        <v>116.82</v>
       </c>
       <c r="D7" t="n">
-        <v>5.42</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1.88</v>
-      </c>
+        <v>133.49</v>
+      </c>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="n">
-        <v>33</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="I7" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3.38</v>
-      </c>
+        <v>242.4</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="n">
-        <v>1.71</v>
+        <v>133.49</v>
       </c>
       <c r="L7" t="n">
-        <v>22.74</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0.13</v>
-      </c>
+        <v>446.99</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Fixation duration (ms)</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>417.08</v>
-      </c>
+          <t>First fixation duration (ms)</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="n">
-        <v>390.95</v>
+        <v>100.15</v>
       </c>
       <c r="D8" t="n">
-        <v>465.48</v>
-      </c>
-      <c r="E8" t="n">
-        <v>536.8</v>
-      </c>
+        <v>133.49</v>
+      </c>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="n">
-        <v>242.4</v>
-      </c>
-      <c r="H8" t="n">
-        <v>417.08</v>
-      </c>
-      <c r="I8" t="n">
-        <v>575.6</v>
-      </c>
-      <c r="J8" t="n">
-        <v>527.0599999999999</v>
-      </c>
+        <v>433.8</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="n">
-        <v>292.82</v>
+        <v>133.49</v>
       </c>
       <c r="L8" t="n">
-        <v>358.09</v>
-      </c>
-      <c r="M8" t="n">
-        <v>667.35</v>
-      </c>
-      <c r="N8" t="n">
-        <v>316.98</v>
-      </c>
-      <c r="O8" t="n">
-        <v>216.87</v>
-      </c>
+        <v>392.09</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>First fixation duration (ms)</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>617.3</v>
-      </c>
-      <c r="C9" t="n">
-        <v>618.3200000000001</v>
-      </c>
-      <c r="D9" t="n">
-        <v>216.87</v>
-      </c>
-      <c r="E9" t="n">
-        <v>618.3200000000001</v>
-      </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="n">
-        <v>433.8</v>
-      </c>
-      <c r="H9" t="n">
-        <v>617.3</v>
-      </c>
-      <c r="I9" t="n">
-        <v>133.43</v>
-      </c>
-      <c r="J9" t="n">
-        <v>583.9299999999999</v>
-      </c>
-      <c r="K9" t="n">
-        <v>266.92</v>
-      </c>
-      <c r="L9" t="n">
-        <v>884.08</v>
-      </c>
-      <c r="M9" t="n">
-        <v>667.35</v>
-      </c>
-      <c r="N9" t="n">
-        <v>216.87</v>
-      </c>
-      <c r="O9" t="n">
-        <v>216.87</v>
-      </c>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
